--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45110.50200231482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>44649.65215277778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45204</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45898.37539351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44799</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45666.59840277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45839.55155092593</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44854.62974537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45954.41766203703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45666.58733796296</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45411.44167824074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44928</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>45422.55405092592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>45334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44239</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44365</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44781.78630787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44358.3443287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44516.49395833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44281</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44431.3840162037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44790.7184837963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44620</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44309.53456018519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44792</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44482.68408564815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44525.63767361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44461</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44573.53703703704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44496</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44853.37575231482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44746.36851851852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44650.405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44873</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44294.90131944444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44512</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44845.41233796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44655</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44623.34288194445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44431</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44782</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44739</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44271.31347222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44274</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44274.38017361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44342.37496527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44298</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44477.5362962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44598</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44264.5437962963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44440.44416666667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44552.46637731481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44462.52061342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44477.53258101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>44257</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44257</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44324</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44341</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44340</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44428.69538194445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44861</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44461</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44498</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>44746</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44294</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44516</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44323</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44239</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44239</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44616.69247685185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44701</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44504</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44362</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44377.57223379629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>44883</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>44384.6803125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44851</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44748.71412037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44294.7769675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44847.58372685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44420.58342592593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44328.84101851852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44522.55723379629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44610</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44266.50221064815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44544</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44480.55214120371</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44358.34016203704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44309.6172337963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44817</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44582</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44616</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44266.50493055556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44630</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44879.64934027778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44748.7228125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44306</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44616.69456018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44831.42795138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44980.61952546296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45078.49630787037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45575.49575231481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44942.63164351852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44909.4028587963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45003</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44861</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44903.70918981481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45152</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44809.59835648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45643.57760416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44940.89184027778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44941</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45057</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44949.38921296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45051.40623842592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45264</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>45243.60005787037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45345.50402777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>44925</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45344</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45328</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45523.69509259259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45544.68020833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45092.38262731482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44908</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45408.28024305555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45281</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>45204.62349537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44340.82724537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44460.66883101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>45237.59287037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>45355</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>45533.61387731481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45715.34443287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>45715.40460648148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>45741.4928125</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>45097.41813657407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45621.50383101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>45558</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45530.57877314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45161</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45161.51387731481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>45680.54476851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45635</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45741.4800462963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44940.87436342592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45743.35166666667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45624.33329861111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45485.44782407407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45743.34086805556</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45741.41645833333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45076.98871527778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44845.40542824074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44956.46387731482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45726.49972222222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44888</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45741.36644675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45741.41033564815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45728.56989583333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45741.38179398148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45330</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45741.37712962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45741.38883101852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45231.65976851852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45727.51495370371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45798.65495370371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45777</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45463.63712962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45716</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45096.36502314815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45737.3978587963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45419</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45601.36858796296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45532.53065972222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45837.63809027777</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>45840.5040625</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45524</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45845.51493055555</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45147</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45811.66655092593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45719.50693287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45811.55803240741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45091.65045138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45686.51806712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45771.5125</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45891.65680555555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45825.48087962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45891.65788194445</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45891.6499537037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45894.48199074074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44574</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45714.66707175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45251.49496527778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45894.36571759259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44834</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45726.5505324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45664.54996527778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45485.43127314815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45418.32625</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>45898.38814814815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>45819.39496527778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44267.62804398148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44267.73493055555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45818.58122685185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45898.38175925926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45819.4267824074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44888</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45621.49960648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>45901.65664351852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>45195.79671296296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45837.63300925926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45904.34918981481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45078.49762731481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44953.56549768519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45824.74221064815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>45908</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45825.47730324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45825.48501157408</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45831.64405092593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45204.62497685185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45825.48480324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45642.41534722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45911.39255787037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45911.40510416667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>45911.65273148148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44803.86137731482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>45911.63292824074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>45911.65128472223</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>45827.61111111111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45911.62809027778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45911.65013888889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>45910.64387731482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>45911.384375</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>45911.44883101852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>45911.44733796296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44237</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>45631.43929398148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>45358.4497337963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45915.5594212963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45176</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45176</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45758.30116898148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>45758.30449074074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>45000.40204861111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45912.45949074074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>45463.6528125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45245.65277777778</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45916.74359953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45827.60984953704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45826</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45917.74109953704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45758.30741898148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>45916.72386574074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45916.35813657408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45916.66194444444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45916.73413194445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>45916.73899305556</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>45162</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>45918.48857638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44991</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44323</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44580</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>45924.59092592593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45097</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>45216.48376157408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>45925.68997685185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45925.69309027777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>45924.59579861111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>45667.39393518519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>45667.39702546296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>45008.34104166667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45834.64112268519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45835.44341435185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45741.36134259259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         <v>45741.48556712963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45929.54796296296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45834.40570601852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45560</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45930.4549537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45839.59015046297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45328.78028935185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45839.5980787037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45839.59332175926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44511</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44515</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>45184</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>45840.49496527778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45841.66398148148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44781.72799768519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44781.7577662037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45911.6541087963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>45841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45841</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>45841</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>45841.61831018519</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>45841.62108796297</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45770.38188657408</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45770.38864583334</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45842.39381944444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45940.51159722222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45845.52295138889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44827.79935185185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45940.51297453704</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45842.93458333334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45842.93585648148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45232</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45223</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45201.39597222222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45944.34914351852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45086.66017361111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45944.40170138889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45946.49811342593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45947.62277777777</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45334.62074074074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45785.60978009259</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45947.39905092592</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44991.51064814815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44974.34145833334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>45364.64887731482</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45695.63864583334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44945</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45944</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45944</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45338.68826388889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45461.6134837963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>45860.96251157407</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45757.31737268518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45947.80585648148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45860.94825231482</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45222</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45945</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45866.95427083333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45391.63104166667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45945</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45334</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45954.59519675926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44390.42636574074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44378.77103009259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>45334.39123842592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>45334.61032407408</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>45954.59898148148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45954.60234953704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44746.79146990741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45195.79848379629</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45195.80072916667</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44431.60414351852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44928</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45875</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45874.39650462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45875.61380787037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45875.6087962963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45173.60072916667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45877</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45819.38864583334</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45161</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45475.53646990741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45334.40017361111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45964.48864583333</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>45463.63390046296</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>45964.47524305555</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>45373.65174768519</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45964.48392361111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44239</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45337.49902777778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45880.57400462963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45878.99365740741</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45842.93702546296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44480.54768518519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45966.59479166667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>45882.4953125</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>45882.50864583333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45677</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45680.56061342593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45621.51123842593</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45971.62094907407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45770.40704861111</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45968.8837037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45762.61453703704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45882.49215277778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44630</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45286.66042824074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44235</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>45972.33020833333</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45512.52320601852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45972.35642361111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45975.41995370371</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>45975.30196759259</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45975.41612268519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>45086.45991898148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44477</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45979</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45384</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>45315</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45173</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45728.57207175926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45741.4753587963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45741.48952546297</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45981.58418981481</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>45513</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45980.6590625</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>45771.53413194444</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45985.46517361111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45617.54293981481</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45706.46256944445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45369</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45985.46603009259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>46029.68160879629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>46029.69590277778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45533.49480324074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44516</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45576.50716435185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44917</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>46029.65</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45987</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44846</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>44846</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45365.52149305555</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44925</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>46031.45888888889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>45239.57196759259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>46030.46462962963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>46034.37393518518</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>45114.44476851852</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45992.45333333333</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45402.23002314815</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45713.43780092592</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>46034.39793981481</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45176</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>46034.49508101852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45314</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45314</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45992.44015046296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44235</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>46034.49045138889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>46034.48131944444</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>46034.40358796297</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>46034.38525462963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>45991.82202546296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45992.4608912037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>46034.59385416667</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45091.35229166667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>46037.35065972222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>46037.37125</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>46037.39934027778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45197</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45659.49363425926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45141</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>46037.35515046296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45999.67056712963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45996</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>46038.65603009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>46034.60202546296</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45999.69591435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45232</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45175</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45086.46122685185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44309</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45238.62673611111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45741.49657407407</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>46045.52421296296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>45533.65033564815</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>46045.52527777778</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44783</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>45616.38618055556</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45533.64871527778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45054</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>46048.57797453704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>46048.58375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>46048.57659722222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>46049.47642361111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45628.47484953704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>46009.45725694444</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>44739.78042824074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45523.57994212963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45523.60236111111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>46009.33664351852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45600.61741898148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45533.60511574074</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>46037.39334490741</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45049</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44853</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45714.64796296296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45714.65370370371</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>44925</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45212</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>46010.36774305555</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44974.36349537037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>46013.38071759259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
         <v>46013.38175925926</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>46013</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44685.60590277778</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44813</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45161</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>46014.35547453703</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>46014.42520833333</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>45420</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>46014.35118055555</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>45426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44803</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45251.56542824074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>45677.62396990741</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45075</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45764</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44974.48900462963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32769,7 +32769,7 @@
         <v>46056.46543981481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>45686.48527777778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44846.89910879629</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>44846.90166666666</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>45411</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>45574.4961574074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45468.603125</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>44713.5634375</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>45308.42202546296</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>45771.6094212963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44454.63469907407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44454</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44888</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>45723.38783564815</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45154</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>45328.64667824074</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44908</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44615</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44909.39881944445</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44467.74497685185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>45161.86523148148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45761.525</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45224.40849537037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>44481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45154.575</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45706.45956018518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>45719.65719907408</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44701</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45161.88435185186</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45082.95840277777</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45649.65947916666</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44341</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45096.35758101852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45236</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>45537.41849537037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45278.65578703704</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>45204</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>44966.41256944444</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45160.48722222223</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45370</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>45068</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>44539.6791087963</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35198,7 +35198,7 @@
         <v>45680.65614583333</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45253.54540509259</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>44845.41481481482</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>44789</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45239.5780787037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>45370.63266203704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>45334.60681712963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45334.54140046296</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>44865.59502314815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>45204.3241087963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>45714.66260416667</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45204.31833333334</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44974.49688657407</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45560</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45576</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44490.36371527778</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45076.99148148148</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45251</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45096.96689814814</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45372.614375</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44623.32844907408</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>45156</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36544,7 +36544,7 @@
         <v>45071</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36601,7 +36601,7 @@
         <v>44298.31650462963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
         <v>44908.90825231482</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>45391.43503472222</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36777,7 +36777,7 @@
         <v>44581.41361111111</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36834,7 +36834,7 @@
         <v>45111.67137731481</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>44600</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45761.52376157408</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45715.30773148148</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45594.32667824074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45405.55135416667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45411</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45214.82375</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45300</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>44746</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>44958.44994212963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45300</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>45632.3565625</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45208</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45218</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45334.61295138889</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>44848</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45537.41435185185</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45714.65763888889</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>45714.67034722222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45715.31364583333</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38056,7 +38056,7 @@
         <v>45715.38047453704</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45715.38317129629</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>44851</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45707.62037037037</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45628.47392361111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>45329</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45635</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45334.60099537037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45334.61423611111</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44939</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45561.38298611111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38708,7 +38708,7 @@
         <v>44719.81275462963</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>45762.50909722222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38822,7 +38822,7 @@
         <v>44281.61100694445</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>45671.64480324074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44609</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>44999.49866898148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44999.51190972222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>45209</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>45770.39206018519</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39231,7 +39231,7 @@
         <v>45770.40364583334</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45770.42675925926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39355,7 +39355,7 @@
         <v>45777.44771990741</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>45777.47251157407</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>45779.34375</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>45779.33960648148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>45779.34159722222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>45779.51002314815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>45783.51277777777</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>45779.87166666667</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>45637.58565972222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>45785.58833333333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>45785.58204861111</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>45706.45083333334</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>45166</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>45786.35311342592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>45786</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>45705.62732638889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>45175</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45530.57599537037</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>45790.57364583333</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>45579.6247337963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45791.85148148148</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45791.84987268518</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45110.50200231482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>44649.65215277778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45204</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45898.37539351852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44799</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45666.59840277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>45839.55155092593</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44854.62974537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45954.41766203703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45666.58733796296</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45411.44167824074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44928</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>45422.55405092592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>45334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44239</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44320</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44365</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44781.78630787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44873</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44454</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44358.3443287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44516.49395833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44281</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44431.3840162037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44546</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44790.7184837963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44620</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44309.53456018519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44792</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44482.68408564815</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44525.63767361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44391</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44461</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44452</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44573.53703703704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44572</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44496</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44853.37575231482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44746.36851851852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44650.405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44873</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44294.90131944444</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44512</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44845.41233796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44655</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>44623.34288194445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44431</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44782</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44739</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44271.31347222222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44274</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44274.38017361111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44342.37496527778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>44298</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44477.5362962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44487</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44598</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44264.5437962963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44440.44416666667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44552.46637731481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44462.52061342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44477.53258101852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>44257</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44257</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         <v>44324</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44341</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44340</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44428.69538194445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44861</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44461</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44498</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>44746</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44294</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44516</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44323</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44239</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44239</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44616.69247685185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44701</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44504</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44462</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44362</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44377.57223379629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>44883</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44523</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>44384.6803125</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44851</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44748.71412037037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44294.7769675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44847.58372685185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44420.58342592593</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44328.84101851852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44522.55723379629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44610</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44266.50221064815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44544</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44600</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44861</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44480.55214120371</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44358.34016203704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>44309.6172337963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44817</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44582</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44425</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44616</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44266.50493055556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44630</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44879.64934027778</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44748.7228125</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44306</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44616.69456018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>44831.42795138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>44980.61952546296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45078.49630787037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45575.49575231481</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44942.63164351852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44909.4028587963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45003</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44861</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44903.70918981481</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45152</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>44412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44809.59835648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45643.57760416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>44940.89184027778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44941</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45057</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44949.38921296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45051.40623842592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45264</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>45243.60005787037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45345.50402777778</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>44925</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45344</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45328</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45523.69509259259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45544.68020833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45092.38262731482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44908</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45408.28024305555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9990,7 +9990,7 @@
         <v>45281</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>45204.62349537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>44340.82724537037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>44460.66883101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>45237.59287037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>45355</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>45533.61387731481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>45715.34443287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         <v>45715.40460648148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         <v>45741.4928125</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>45097.41813657407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45621.50383101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>45558</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>45530.57877314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45161</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>45161.51387731481</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>45680.54476851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45635</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45741.4800462963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44940.87436342592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45743.35166666667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45624.33329861111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45485.44782407407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45743.34086805556</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45741.41645833333</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>45076.98871527778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44845.40542824074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44956.46387731482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>45726.49972222222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44888</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45741.36644675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45741.41033564815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45728.56989583333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45741.38179398148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45330</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45741.37712962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45741.38883101852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45231.65976851852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45727.51495370371</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45798.65495370371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45777</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45463.63712962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45716</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45096.36502314815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45096</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45737.3978587963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45419</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>45601.36858796296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45532.53065972222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45837.63809027777</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>45840.5040625</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45524</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45845.51493055555</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45147</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45811.66655092593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45467</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45719.50693287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45811.55803240741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45091.65045138889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45686.51806712963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45771.5125</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45891.65680555555</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
         <v>45825.48087962963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>45891.65788194445</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13723,7 +13723,7 @@
         <v>45891.6499537037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>45894.48199074074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
         <v>44574</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45714.66707175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45729</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45251.49496527778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45894.36571759259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>44834</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45726.5505324074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45664.54996527778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45485.43127314815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45418.32625</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>45898.38814814815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>45819.39496527778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>44267.62804398148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44267.73493055555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45818.58122685185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45898.38175925926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>45819.4267824074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44888</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45621.49960648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>45901.65664351852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>45195.79671296296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>45837.63300925926</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45904.34918981481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>45078.49762731481</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44431</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44953.56549768519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>45824.74221064815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>45908</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45825.47730324074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>45825.48501157408</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15582,7 +15582,7 @@
         <v>45831.64405092593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45204.62497685185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45825.48480324074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45642.41534722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45911.39255787037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45911.40510416667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>45911.65273148148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44803.86137731482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>45911.63292824074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>45911.65128472223</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>45827.61111111111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45911.62809027778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45911.65013888889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>45910.64387731482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>45911.384375</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>45911.44883101852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16499,7 +16499,7 @@
         <v>45911.44733796296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>44237</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>45631.43929398148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16670,7 +16670,7 @@
         <v>45358.4497337963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45915.5594212963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45176</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45176</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45758.30116898148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>45758.30449074074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>45000.40204861111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>45912.45949074074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>45463.6528125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>45245.65277777778</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17260,7 +17260,7 @@
         <v>45916.74359953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>45827.60984953704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17379,7 +17379,7 @@
         <v>45826</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17436,7 +17436,7 @@
         <v>45917.74109953704</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17493,7 +17493,7 @@
         <v>45758.30741898148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>45916.72386574074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45916.35813657408</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17674,7 +17674,7 @@
         <v>45916.66194444444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45916.73413194445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17798,7 +17798,7 @@
         <v>45916.73899305556</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>45162</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>45918.48857638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>44991</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>44323</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>44580</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18145,7 +18145,7 @@
         <v>45924.59092592593</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45097</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18259,7 +18259,7 @@
         <v>45216.48376157408</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18316,7 +18316,7 @@
         <v>45925.68997685185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>45925.69309027777</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>45924.59579861111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>45667.39393518519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18554,7 +18554,7 @@
         <v>45667.39702546296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18611,7 +18611,7 @@
         <v>45008.34104166667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18668,7 +18668,7 @@
         <v>45834.64112268519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18725,7 +18725,7 @@
         <v>45835.44341435185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>45741.36134259259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18844,7 +18844,7 @@
         <v>45741.48556712963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45929.54796296296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45315</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45834.40570601852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45036</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45560</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45930.4549537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45839.59015046297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45328.78028935185</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45839.5980787037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45839.59332175926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>44511</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>44515</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19610,7 +19610,7 @@
         <v>45184</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>45840.49496527778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45841.66398148148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>44781.72799768519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>44781.7577662037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45911.6541087963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>45841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45841</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>45841</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20128,7 +20128,7 @@
         <v>45841.61831018519</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>45841.62108796297</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45770.38188657408</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45770.38864583334</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45842.39381944444</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45940.51159722222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45845.52295138889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44827.79935185185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45940.51297453704</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45842.93458333334</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45842.93585648148</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45232</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45223</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45201.39597222222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45944.34914351852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45086.66017361111</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45944.40170138889</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45946.49811342593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45947.62277777777</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45334.62074074074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45785.60978009259</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>45947.39905092592</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44991.51064814815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44974.34145833334</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>45364.64887731482</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>45695.63864583334</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>44945</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45944</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45944</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45338.68826388889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45461.6134837963</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>45860.96251157407</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>45757.31737268518</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>45947.80585648148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45860.94825231482</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>45222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22272,7 +22272,7 @@
         <v>45222</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>45945</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>45866.95427083333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         <v>45391.63104166667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45945</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22557,7 +22557,7 @@
         <v>45334</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22614,7 +22614,7 @@
         <v>45954.59519675926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>44390.42636574074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>44378.77103009259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>45334.39123842592</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22857,7 +22857,7 @@
         <v>45334.61032407408</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22919,7 +22919,7 @@
         <v>45954.59898148148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>45954.60234953704</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44746.79146990741</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45195.79848379629</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45195.80072916667</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44431.60414351852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44928</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45071</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45875</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45874.39650462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45875.61380787037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45875.6087962963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45173.60072916667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45877</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45819.38864583334</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45161</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45475.53646990741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45334.40017361111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>45964.48864583333</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         <v>45463.63390046296</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>45964.47524305555</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>45373.65174768519</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45964.48392361111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44239</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>45337.49902777778</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24374,7 +24374,7 @@
         <v>45880.57400462963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>45878.99365740741</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
         <v>45842.93702546296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24545,7 +24545,7 @@
         <v>44987</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24602,7 +24602,7 @@
         <v>44480.54768518519</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45966.59479166667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>45882.4953125</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>45882.50864583333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45677</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>45680.56061342593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45621.51123842593</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>45971.62094907407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>45770.40704861111</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45968.8837037037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45762.61453703704</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45882.49215277778</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44630</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45286.66042824074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>44235</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>45972.33020833333</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>45512.52320601852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45972.35642361111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45975.41995370371</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>45975.30196759259</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>45975.41612268519</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>45086.45991898148</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>45232</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44477</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45979</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45384</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>45315</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>45173</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>45728.57207175926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45741.4753587963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45741.48952546297</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45981.58418981481</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         <v>45513</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45980.6590625</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>45771.53413194444</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>45985.46517361111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45617.54293981481</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26761,7 +26761,7 @@
         <v>45706.46256944445</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26818,7 +26818,7 @@
         <v>45369</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         <v>45985.46603009259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>46029.68160879629</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26989,7 +26989,7 @@
         <v>46029.69590277778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27046,7 +27046,7 @@
         <v>45533.49480324074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27103,7 +27103,7 @@
         <v>44516</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27160,7 +27160,7 @@
         <v>45576.50716435185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27222,7 +27222,7 @@
         <v>44917</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27279,7 +27279,7 @@
         <v>46029.65</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
         <v>45987</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27393,7 +27393,7 @@
         <v>44846</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27450,7 +27450,7 @@
         <v>44846</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27507,7 +27507,7 @@
         <v>45365.52149305555</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44925</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>46031.45888888889</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>45239.57196759259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>46030.46462962963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>46034.37393518518</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>45114.44476851852</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>45992.45333333333</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27973,7 +27973,7 @@
         <v>45402.23002314815</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28030,7 +28030,7 @@
         <v>45713.43780092592</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28087,7 +28087,7 @@
         <v>46034.39793981481</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28144,7 +28144,7 @@
         <v>45176</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>46034.49508101852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28258,7 +28258,7 @@
         <v>45314</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         <v>45314</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>45992.44015046296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44235</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>46034.49045138889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>46034.48131944444</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>46034.40358796297</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>46034.38525462963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>45991.82202546296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>45992.4608912037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>46034.59385416667</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>45091.35229166667</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>46037.35065972222</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>46037.37125</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>46037.39934027778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45197</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45659.49363425926</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45141</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>46037.35515046296</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>45999.67056712963</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>45996</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>46038.65603009259</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>46034.60202546296</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45999.69591435185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>45232</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>45175</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45086.46122685185</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44309</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>45238.62673611111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45741.49657407407</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>46045.52421296296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30050,7 +30050,7 @@
         <v>45533.65033564815</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>46045.52527777778</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44783</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>45616.38618055556</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>45533.64871527778</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>45054</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>46048.57797453704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30449,7 +30449,7 @@
         <v>46048.58375</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30506,7 +30506,7 @@
         <v>46048.57659722222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30563,7 +30563,7 @@
         <v>46049.47642361111</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45628.47484953704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>46009.45725694444</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30734,7 +30734,7 @@
         <v>44739.78042824074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>45113</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>45523.57994212963</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45523.60236111111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>46009.33664351852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45600.61741898148</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45533.60511574074</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>46037.39334490741</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45049</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>44853</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45714.64796296296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45714.65370370371</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
         <v>44925</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45212</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45072</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>46010.36774305555</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>44974.36349537037</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>46013.38071759259</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31795,7 +31795,7 @@
         <v>46013.38175925926</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31852,7 +31852,7 @@
         <v>46013</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>44685.60590277778</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31966,7 +31966,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>44813</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45161</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>46014.35547453703</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>46014.42520833333</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>45420</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>46014.35118055555</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>45426</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>44803</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45251.56542824074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32536,7 +32536,7 @@
         <v>45677.62396990741</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32593,7 +32593,7 @@
         <v>45075</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32650,7 +32650,7 @@
         <v>45764</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         <v>44974.48900462963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32769,7 +32769,7 @@
         <v>46056.46543981481</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>45686.48527777778</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32888,7 +32888,7 @@
         <v>44846.89910879629</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32945,7 +32945,7 @@
         <v>44846.90166666666</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33002,7 +33002,7 @@
         <v>45411</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33059,7 +33059,7 @@
         <v>45574.4961574074</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33121,7 +33121,7 @@
         <v>45468.603125</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>44713.5634375</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>45308.42202546296</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>45771.6094212963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44454.63469907407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44454</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44888</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>45723.38783564815</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45154</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>45328.64667824074</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44908</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44615</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44909.39881944445</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44467.74497685185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>45161.86523148148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33981,7 +33981,7 @@
         <v>45761.525</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>45224.40849537037</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>44481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45154.575</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45706.45956018518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>45719.65719907408</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44701</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45161.88435185186</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45082.95840277777</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45649.65947916666</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44341</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45096.35758101852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45236</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>45537.41849537037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45278.65578703704</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>45204</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>44966.41256944444</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34970,7 +34970,7 @@
         <v>45160.48722222223</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45370</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>45068</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>44539.6791087963</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35198,7 +35198,7 @@
         <v>45680.65614583333</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35260,7 +35260,7 @@
         <v>45253.54540509259</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>44845.41481481482</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35374,7 +35374,7 @@
         <v>44789</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35431,7 +35431,7 @@
         <v>45239.5780787037</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>45370.63266203704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>45334.60681712963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>45334.54140046296</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>44865.59502314815</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>45107</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>45204.3241087963</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>45714.66260416667</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45204.31833333334</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44974.49688657407</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45560</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>45576</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44490.36371527778</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45076.99148148148</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45251</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>45096.96689814814</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45372.614375</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44623.32844907408</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36487,7 +36487,7 @@
         <v>45156</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36544,7 +36544,7 @@
         <v>45071</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36601,7 +36601,7 @@
         <v>44298.31650462963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
         <v>44908.90825231482</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>45391.43503472222</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36777,7 +36777,7 @@
         <v>44581.41361111111</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36834,7 +36834,7 @@
         <v>45111.67137731481</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>44600</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45761.52376157408</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45715.30773148148</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45594.32667824074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45405.55135416667</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37181,7 +37181,7 @@
         <v>45411</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37238,7 +37238,7 @@
         <v>45214.82375</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37295,7 +37295,7 @@
         <v>45300</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>44746</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>44958.44994212963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45300</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>45632.3565625</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45208</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37637,7 +37637,7 @@
         <v>45218</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37694,7 +37694,7 @@
         <v>45334.61295138889</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>44848</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45537.41435185185</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45714.65763888889</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>45714.67034722222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37994,7 +37994,7 @@
         <v>45715.31364583333</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38056,7 +38056,7 @@
         <v>45715.38047453704</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45715.38317129629</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>44851</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>45707.62037037037</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38294,7 +38294,7 @@
         <v>45628.47392361111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38351,7 +38351,7 @@
         <v>45329</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38408,7 +38408,7 @@
         <v>45635</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38465,7 +38465,7 @@
         <v>45334.60099537037</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45334.61423611111</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>44939</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45561.38298611111</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38708,7 +38708,7 @@
         <v>44719.81275462963</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>45762.50909722222</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38822,7 +38822,7 @@
         <v>44281.61100694445</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>45671.64480324074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44609</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>44999.49866898148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>44999.51190972222</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39112,7 +39112,7 @@
         <v>45209</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39169,7 +39169,7 @@
         <v>45770.39206018519</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39231,7 +39231,7 @@
         <v>45770.40364583334</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39293,7 +39293,7 @@
         <v>45770.42675925926</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39355,7 +39355,7 @@
         <v>45777.44771990741</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>45777.47251157407</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>45779.34375</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>45779.33960648148</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>45779.34159722222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>45779.51002314815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>45783.51277777777</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>45779.87166666667</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>45637.58565972222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>45785.58833333333</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>45785.58204861111</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>45706.45083333334</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>45166</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>45786.35311342592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>45786</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40225,7 +40225,7 @@
         <v>45705.62732638889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>45175</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45530.57599537037</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>45790.57364583333</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>45579.6247337963</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>45791.85148148148</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45791.84987268518</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45110.50200231482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>44649.65215277778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45204</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44799</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45898.37539351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45666.59840277778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45839.55155092593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>45917</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44854.62974537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45954.41766203703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45666.58733796296</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45411.44167824074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44928</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>45422.55405092592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>45334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44320</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44781.78630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44454</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44358.3443287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44516.49395833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44281</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44620</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44309.53456018519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44431.3840162037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44790.7184837963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44792</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44482.68408564815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44391</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44525.63767361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44461</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44452</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44572</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44853.37575231482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44496</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44573.53703703704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44650.405</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44746.36851851852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44873</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44294.90131944444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44512</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44845.41233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44623.34288194445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44782</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44739</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44271.31347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44274</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44274.38017361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44342.37496527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44298</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44477.5362962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44487</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44598</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44264.5437962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44440.44416666667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44552.46637731481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44462.52061342593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44477.53258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44257</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44257</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44324</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>44428.69538194445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44861</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44498</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44341</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44461</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44340</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44294</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>44516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44323</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44592</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44616.69247685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44701</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44462</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44362</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44377.57223379629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44883</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>44523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44851</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44384.6803125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>44748.71412037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44294.7769675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44847.58372685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44420.58342592593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44328.84101851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44522.55723379629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44610</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44266.50221064815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44544</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44600</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44861</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44480.55214120371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44358.34016203704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44309.6172337963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44817</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44582</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44616</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44266.50493055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44748.7228125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44306</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44630</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44879.64934027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44616.69456018518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44831.42795138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44980.61952546296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>45078.49630787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>45575.49575231481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44909.4028587963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44942.63164351852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45003</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44809.59835648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44903.70918981481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45643.57760416667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44940.89184027778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44941</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45057</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45051.40623842592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45264</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44861</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44949.38921296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45243.60005787037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>44925</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45345.50402777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>45344</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>45328</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45523.69509259259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>45544.68020833333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45092.38262731482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45281</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>44908</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45408.28024305555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45204.62349537037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44340.82724537037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44460.66883101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>45237.59287037037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>45533.61387731481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>45355</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>45741.4928125</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>45097.41813657407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>45621.50383101852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45558</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45530.57877314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>45715.34443287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45635</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>45161</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45161.51387731481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45680.54476851852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44940.87436342592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45076.98871527778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44956.46387731482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>45485.44782407407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45715.40460648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45231.65976851852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45716</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45096.36502314815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45463.63712962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45419</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45467</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45601.36858796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45719.50693287037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45532.53065972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44574</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44845.40542824074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>45686.51806712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>45714.66707175926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45251.49496527778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45819.39496527778</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45818.58122685185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45726.5505324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45664.54996527778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45819.4267824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45485.43127314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45418.32625</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44267.62804398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44267.73493055555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45837.63809027777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45840.5040625</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44888</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45621.49960648148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45845.51493055555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45824.74221064815</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45825.47730324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45825.48501157408</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45825.48480324074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45827.61111111111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45078.49762731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>45891.65680555555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44431</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45825.48087962963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45891.65788194445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45891.6499537037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45894.48199074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44953.56549768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45827.60984953704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45826</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45729</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45204.62497685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45894.36571759259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45642.41534722222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44803.86137731482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45631.43929398148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45358.4497337963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45176</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45176</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>45758.30116898148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45758.30449074074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45000.40204861111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45463.6528125</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45898.38814814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45245.65277777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>45834.64112268519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45758.30741898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>45835.44341435185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>45898.38175925926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45901.65664351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>45834.40570601852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>45560</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45195.79671296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45162</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45837.63300925926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45839.59015046297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45904.34918981481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45839.5980787037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44991</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45839.59332175926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44323</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45908</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45840.49496527778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45841.66398148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>45216.48376157408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45831.64405092593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45911.39255787037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45841</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45841</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>45841.61831018519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45841.62108796297</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45911.40510416667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45911.65273148148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45667.39393518519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45667.39702546296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>45911.63292824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>45911.65128472223</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45911.62809027778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45911.65013888889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45910.64387731482</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45911.384375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45008.34104166667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45842.39381944444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45845.52295138889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>45911.44883101852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>45911.44733796296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>45842.93458333334</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>45842.93585648148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>45915.5594212963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17359,7 +17359,7 @@
         <v>45741.36134259259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>45741.48556712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>45912.45949074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>45315</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>45036</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>45916.74359953704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>45917.74109953704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>45916.72386574074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>45916.35813657408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>45916.66194444444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
         <v>45916.73413194445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45785.60978009259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45916.73899305556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44974.34145833334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45695.63864583334</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45328.78028935185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45918.48857638889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44511</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45461.6134837963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44515</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45860.96251157407</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>45860.94825231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44781.72799768519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44781.7577662037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45924.59092592593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45866.95427083333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45925.68997685185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45925.69309027777</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45924.59579861111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45770.38188657408</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45770.38864583334</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45929.54796296296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45930.4549537037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44827.79935185185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45875</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>45874.39650462963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>45232</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>45223</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>45201.39597222222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>45875.61380787037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>45875.6087962963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>45086.66017361111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>45877</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45819.38864583334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>45334.62074074074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>45334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44991.51064814815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45364.64887731482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44945</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45880.57400462963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45878.99365740741</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45842.93702546296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>45882.4953125</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45882.50864583333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45338.68826388889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45762.61453703704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45882.49215277778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>45757.31737268518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>45222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>45911.6541087963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>45391.63104166667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45334</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44390.42636574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44378.77103009259</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45232</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45940.51159722222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45940.51297453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45334.39123842592</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45334.61032407408</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44477</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44746.79146990741</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45944.34914351852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45195.79848379629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>45195.80072916667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44431.60414351852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45944.40170138889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44928</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45071</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45946.49811342593</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45947.62277777777</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45173.60072916667</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45947.39905092592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45944</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45161</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45944</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45475.53646990741</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>45947.80585648148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45945</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45334.40017361111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45463.63390046296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45373.65174768519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45337.49902777778</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45945</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44987</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44480.54768518519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45954.59519675926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>45677</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>45680.56061342593</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>45621.51123842593</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>45770.40704861111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45954.59898148148</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45954.60234953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44630</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45286.66042824074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>45512.52320601852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>45086.45991898148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>45964.48864583333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>45964.47524305555</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45964.48392361111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>45384</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>45966.59479166667</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>45315</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>45173</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>45728.57207175926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45741.4753587963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45741.48952546297</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>45513</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>45771.53413194444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45971.62094907407</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>45968.8837037037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>45617.54293981481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>45706.46256944445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>45972.33020833333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>45369</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>45972.35642361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>45975.41995370371</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45975.30196759259</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45975.41612268519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45533.49480324074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44516</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45576.50716435185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>45979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44846</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>44846</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>45365.52149305555</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>45981.58418981481</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>45980.6590625</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44925</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45239.57196759259</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45985.46517361111</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>45114.44476851852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45402.23002314815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45985.46603009259</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45713.43780092592</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45176</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45314</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45314</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45987</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45091.35229166667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>45197</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>46034.37393518518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45992.45333333333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45659.49363425926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>45141</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>46034.39793981481</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>46034.49508101852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>45992.44015046296</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>46034.49045138889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>46034.48131944444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>46034.40358796297</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>46034.38525462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>45991.82202546296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>45992.4608912037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27031,7 +27031,7 @@
         <v>46034.59385416667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>46037.35065972222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>46037.37125</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>46037.39934027778</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>46037.35515046296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45232</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45175</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45999.67056712963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45996</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>46038.65603009259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>46034.60202546296</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>45086.46122685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>45999.69591435185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44309</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>45238.62673611111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>45741.49657407407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>45533.65033564815</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44783</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>45616.38618055556</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45533.64871527778</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>45054</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>46045.52527777778</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>45628.47484953704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44739.78042824074</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>46048.57797453704</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>46048.58375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45113</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>46048.57659722222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45523.57994212963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45523.60236111111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>46049.47642361111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45600.61741898148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45533.60511574074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>46009.45725694444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45049</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>44853</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>46009.33664351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>45714.64796296296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45714.65370370371</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44925</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>45212</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>45072</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>46037.39334490741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44974.36349537037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44685.60590277778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>44846</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44813</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45161</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45420</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>46010.36774305555</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45426</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44803</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>46013.38071759259</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>46013.38175925926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>45251.56542824074</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>46013</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>45677.62396990741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>45075</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>45764</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44974.48900462963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>46014.35547453703</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>46014.42520833333</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>46014.35118055555</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46056.46543981481</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45686.48527777778</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44846.89910879629</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44846.90166666666</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45411</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45574.4961574074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45468.603125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44713.5634375</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45308.42202546296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45771.6094212963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44454.63469907407</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44454</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>46045.52421296296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44888</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>45723.38783564815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>45154</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>45328.64667824074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44908</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>46064</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44615</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>46069.45079861111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44909.39881944445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44467.74497685185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>45161.86523148148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>45761.525</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>46071.33418981481</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>46029.65</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>46029.69590277778</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45224.40849537037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>46029.68160879629</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>44481</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45154.575</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>46030.46462962963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45706.45956018518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45719.65719907408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>46031.45888888889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44701</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45161.88435185186</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45082.95840277777</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45649.65947916666</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44341</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45096.35758101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>45236</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45537.41849537037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45278.65578703704</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33267,7 +33267,7 @@
         <v>45204</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>44966.41256944444</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45160.48722222223</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45370</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45068</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>44539.6791087963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45680.65614583333</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45253.54540509259</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44845.41481481482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44789</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>45239.5780787037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45370.63266203704</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45334.60681712963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45334.54140046296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44865.59502314815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45107</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45204.3241087963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>45714.66260416667</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45204.31833333334</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44974.49688657407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>45560</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>45576</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>44490.36371527778</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>45076.99148148148</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>45251</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>45096.96689814814</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45372.614375</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44623.32844907408</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>45156</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35022,7 +35022,7 @@
         <v>44298.31650462963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>44908.90825231482</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>45391.43503472222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35198,7 +35198,7 @@
         <v>44581.41361111111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45111.67137731481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35312,7 +35312,7 @@
         <v>44600</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>45761.52376157408</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         <v>45715.30773148148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>45594.32667824074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>45405.55135416667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>45411</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>45214.82375</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>45300</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35773,7 +35773,7 @@
         <v>44746</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35830,7 +35830,7 @@
         <v>44958.44994212963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>45300</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>45632.3565625</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45208</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>45218</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45334.61295138889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>44848</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>45537.41435185185</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45714.65763888889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45714.67034722222</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36415,7 +36415,7 @@
         <v>45715.31364583333</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>45715.38047453704</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45715.38317129629</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36601,7 +36601,7 @@
         <v>44851</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>45707.62037037037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36715,7 +36715,7 @@
         <v>45628.47392361111</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45329</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45635</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45334.60099537037</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45334.61423611111</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37010,7 +37010,7 @@
         <v>44939</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45561.38298611111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>44719.81275462963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45762.50909722222</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>44281.61100694445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37305,7 +37305,7 @@
         <v>45671.64480324074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37362,7 +37362,7 @@
         <v>44609</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>44999.49866898148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44999.51190972222</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>45209</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>45770.39206018519</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37652,7 +37652,7 @@
         <v>45770.40364583334</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37714,7 +37714,7 @@
         <v>45770.42675925926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>45777.44771990741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45777.47251157407</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
         <v>45779.34375</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>45779.33960648148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>45779.34159722222</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>45779.51002314815</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>45783.51277777777</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>45779.87166666667</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>45637.58565972222</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>45785.58833333333</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>45785.58204861111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>45706.45083333334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>45166</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>45786.35311342592</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>45786</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45705.62732638889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>45175</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>45530.57599537037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45790.57364583333</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>45579.6247337963</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>45791.85148148148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>45791.84987268518</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>45741.4800462963</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45743.35166666667</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45624.33329861111</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45743.34086805556</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45741.41645833333</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39340,7 +39340,7 @@
         <v>45726.49972222222</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>45741.36644675926</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39459,7 +39459,7 @@
         <v>45741.41033564815</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>45728.56989583333</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>45741.38179398148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45330</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45741.37712962963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39764,7 +39764,7 @@
         <v>45741.38883101852</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>45727.51495370371</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>45798.65495370371</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>45777</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40002,7 +40002,7 @@
         <v>45737.3978587963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>45524</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>45811.66655092593</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>45811.55803240741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>45091.65045138889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>45771.5125</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45110.50200231482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>44649.65215277778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45183</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45204</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44799</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45898.37539351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45666.59840277778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>45839.55155092593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>45917</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>44854.62974537037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45954.41766203703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45666.58733796296</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45411.44167824074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44928</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>45422.55405092592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>45334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44320</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44781.78630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44454</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44358.3443287037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44516.49395833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44281</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44620</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44309.53456018519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44431.3840162037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44790.7184837963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44792</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44482.68408564815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44391</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44525.63767361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44461</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44452</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44572</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44853.37575231482</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44496</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44573.53703703704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44650.405</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44746.36851851852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44873</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44294.90131944444</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44512</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44845.41233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44623.34288194445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44782</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44739</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44271.31347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44274</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44274.38017361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44342.37496527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44298</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44477.5362962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44487</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44598</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44264.5437962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44440.44416666667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44552.46637731481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44462.52061342593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44477.53258101852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44257</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44257</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44324</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>44428.69538194445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>44861</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44498</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>44341</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44461</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44340</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44294</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>44516</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44746</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44323</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44592</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44616.69247685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44701</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44462</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44362</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44377.57223379629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44883</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>44523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44851</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44384.6803125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>44748.71412037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44294.7769675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44847.58372685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44420.58342592593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44328.84101851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44522.55723379629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44610</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44266.50221064815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44544</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44600</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44861</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44480.55214120371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44358.34016203704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44309.6172337963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44817</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44582</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44425</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44616</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44266.50493055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44748.7228125</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44306</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44630</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44879.64934027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44616.69456018518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44831.42795138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44980.61952546296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>45078.49630787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>45575.49575231481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44909.4028587963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>44942.63164351852</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45003</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44809.59835648148</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>44903.70918981481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>44412</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45643.57760416667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44940.89184027778</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44941</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>45057</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>45051.40623842592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>45264</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>44861</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>44949.38921296296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>45243.60005787037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>44925</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>45345.50402777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9363,7 +9363,7 @@
         <v>45344</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9420,7 +9420,7 @@
         <v>45328</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         <v>45523.69509259259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9534,7 +9534,7 @@
         <v>45544.68020833333</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9591,7 +9591,7 @@
         <v>45092.38262731482</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45281</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>44908</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45408.28024305555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45204.62349537037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>44340.82724537037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>44460.66883101852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>45237.59287037037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>45533.61387731481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>45355</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>45741.4928125</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>45097.41813657407</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>45621.50383101852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>45558</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>45530.57877314815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10461,7 +10461,7 @@
         <v>45715.34443287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45635</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>45161</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>45161.51387731481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>45680.54476851852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>44940.87436342592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>45076.98871527778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>44956.46387731482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>45485.44782407407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45715.40460648148</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>45231.65976851852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>44888</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>45716</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>45096.36502314815</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>45096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>45463.63712962963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>45147</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45419</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45467</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45601.36858796296</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45719.50693287037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45532.53065972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>44574</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>44845.40542824074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>45686.51806712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>45714.66707175926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45251.49496527778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45819.39496527778</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>45818.58122685185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>45726.5505324074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>45664.54996527778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>45819.4267824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>45485.43127314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>45418.32625</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44267.62804398148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44267.73493055555</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45837.63809027777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45840.5040625</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44888</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45621.49960648148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45845.51493055555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45824.74221064815</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45825.47730324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45825.48501157408</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45825.48480324074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45827.61111111111</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45078.49762731481</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>45891.65680555555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>44431</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45825.48087962963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45891.65788194445</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45891.6499537037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45894.48199074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44953.56549768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>45827.60984953704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45826</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45729</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45204.62497685185</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45894.36571759259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45642.41534722222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>44803.86137731482</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45631.43929398148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45358.4497337963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>45176</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>45176</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>45758.30116898148</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45758.30449074074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>45000.40204861111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>45463.6528125</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>45898.38814814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
         <v>45245.65277777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>45834.64112268519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45758.30741898148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>45835.44341435185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>45898.38175925926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45901.65664351852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14940,7 +14940,7 @@
         <v>45834.40570601852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14997,7 +14997,7 @@
         <v>45560</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15059,7 +15059,7 @@
         <v>45195.79671296296</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15116,7 +15116,7 @@
         <v>45162</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
         <v>45837.63300925926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15230,7 +15230,7 @@
         <v>45839.59015046297</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>45904.34918981481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45839.5980787037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44991</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>45839.59332175926</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44323</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44580</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45908</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45097</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45840.49496527778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45841.66398148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15877,7 +15877,7 @@
         <v>45216.48376157408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45831.64405092593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15991,7 +15991,7 @@
         <v>45911.39255787037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45841</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45841</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>45841.61831018519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45841.62108796297</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45911.40510416667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45911.65273148148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45667.39393518519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45667.39702546296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16561,7 +16561,7 @@
         <v>45911.63292824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16618,7 +16618,7 @@
         <v>45911.65128472223</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45911.62809027778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         <v>45911.65013888889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>45910.64387731482</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>45911.384375</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>45008.34104166667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16960,7 +16960,7 @@
         <v>45842.39381944444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17017,7 +17017,7 @@
         <v>45845.52295138889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>45911.44883101852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17131,7 +17131,7 @@
         <v>45911.44733796296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
         <v>45842.93458333334</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17245,7 +17245,7 @@
         <v>45842.93585648148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>45915.5594212963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17359,7 +17359,7 @@
         <v>45741.36134259259</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>45741.48556712963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         <v>45912.45949074074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         <v>45315</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>45036</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         <v>45916.74359953704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17716,7 +17716,7 @@
         <v>45917.74109953704</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17773,7 +17773,7 @@
         <v>45916.72386574074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>45916.35813657408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>45916.66194444444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17954,7 +17954,7 @@
         <v>45916.73413194445</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>45785.60978009259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>45916.73899305556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>44974.34145833334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>45695.63864583334</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45328.78028935185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45918.48857638889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44511</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45461.6134837963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18487,7 +18487,7 @@
         <v>44515</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18544,7 +18544,7 @@
         <v>45860.96251157407</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18601,7 +18601,7 @@
         <v>45860.94825231482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18658,7 +18658,7 @@
         <v>45184</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18715,7 +18715,7 @@
         <v>44781.72799768519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>44781.7577662037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45924.59092592593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45866.95427083333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45925.68997685185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45925.69309027777</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>45924.59579861111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45770.38188657408</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45770.38864583334</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45929.54796296296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45930.4549537037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>44827.79935185185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45875</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19476,7 +19476,7 @@
         <v>45874.39650462963</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>45232</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>45223</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19647,7 +19647,7 @@
         <v>45201.39597222222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>45875.61380787037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19761,7 +19761,7 @@
         <v>45875.6087962963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         <v>45086.66017361111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
         <v>45877</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45819.38864583334</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>45334.62074074074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>45334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44991.51064814815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>45364.64887731482</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44945</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45880.57400462963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45878.99365740741</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>45842.93702546296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>45882.4953125</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45882.50864583333</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>45338.68826388889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45762.61453703704</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>45882.49215277778</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>45757.31737268518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>45222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>45911.6541087963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>45391.63104166667</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45334</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>44390.42636574074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>44378.77103009259</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45232</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45940.51159722222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45940.51297453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45334.39123842592</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21434,7 +21434,7 @@
         <v>45334.61032407408</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>44477</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>44746.79146990741</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45944.34914351852</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45195.79848379629</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>45195.80072916667</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>44431.60414351852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45944.40170138889</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>44928</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45071</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45946.49811342593</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45947.62277777777</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45173.60072916667</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45947.39905092592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45944</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45161</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45944</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>45475.53646990741</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>45947.80585648148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45945</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45334.40017361111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45463.63390046296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45373.65174768519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45337.49902777778</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45945</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44987</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44480.54768518519</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45954.59519675926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>45677</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>45680.56061342593</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>45621.51123842593</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>45770.40704861111</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45954.59898148148</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45954.60234953704</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44630</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>45286.66042824074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
         <v>45512.52320601852</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>45086.45991898148</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>45964.48864583333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>45964.47524305555</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45964.48392361111</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>45384</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>45966.59479166667</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23945,7 +23945,7 @@
         <v>45315</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
         <v>45173</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24059,7 +24059,7 @@
         <v>45728.57207175926</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45741.4753587963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45741.48952546297</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>45513</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>45771.53413194444</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>45971.62094907407</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>45968.8837037037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>45617.54293981481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>45706.46256944445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>45972.33020833333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>45369</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24711,7 +24711,7 @@
         <v>45972.35642361111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>45975.41995370371</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24830,7 +24830,7 @@
         <v>45975.30196759259</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45975.41612268519</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>45533.49480324074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>44516</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>45576.50716435185</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25125,7 +25125,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25182,7 +25182,7 @@
         <v>45979</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25239,7 +25239,7 @@
         <v>44846</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25296,7 +25296,7 @@
         <v>44846</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>45365.52149305555</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25415,7 +25415,7 @@
         <v>45981.58418981481</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>45980.6590625</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25529,7 +25529,7 @@
         <v>44925</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45239.57196759259</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25643,7 +25643,7 @@
         <v>45985.46517361111</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25700,7 +25700,7 @@
         <v>45114.44476851852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>45402.23002314815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45985.46603009259</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45713.43780092592</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45176</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25985,7 +25985,7 @@
         <v>45314</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26042,7 +26042,7 @@
         <v>45314</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         <v>45987</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26156,7 +26156,7 @@
         <v>45091.35229166667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26218,7 +26218,7 @@
         <v>45197</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>46034.37393518518</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45992.45333333333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45659.49363425926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26451,7 +26451,7 @@
         <v>45141</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>46034.39793981481</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>46034.49508101852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>45992.44015046296</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>46034.49045138889</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>46034.48131944444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>46034.40358796297</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>46034.38525462963</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26912,7 +26912,7 @@
         <v>45991.82202546296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26969,7 +26969,7 @@
         <v>45992.4608912037</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27031,7 +27031,7 @@
         <v>46034.59385416667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>46037.35065972222</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>46037.37125</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>46037.39934027778</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>46037.35515046296</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>45232</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>45175</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45999.67056712963</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45996</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>46038.65603009259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27601,7 +27601,7 @@
         <v>46034.60202546296</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
         <v>45086.46122685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         <v>45999.69591435185</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27772,7 +27772,7 @@
         <v>44309</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>45238.62673611111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>45741.49657407407</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27953,7 +27953,7 @@
         <v>45533.65033564815</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>44783</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>45616.38618055556</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45533.64871527778</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28181,7 +28181,7 @@
         <v>45054</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28238,7 +28238,7 @@
         <v>46045.52527777778</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28295,7 +28295,7 @@
         <v>45628.47484953704</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>44739.78042824074</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>46048.57797453704</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>46048.58375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45113</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>46048.57659722222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45523.57994212963</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45523.60236111111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>46049.47642361111</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45600.61741898148</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45533.60511574074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>46009.45725694444</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>45049</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29036,7 +29036,7 @@
         <v>44853</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>46009.33664351852</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>45714.64796296296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29222,7 +29222,7 @@
         <v>45714.65370370371</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44925</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>45212</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>45072</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>46037.39334490741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44974.36349537037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44685.60590277778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>44846</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44813</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45161</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45420</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>46010.36774305555</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29921,7 +29921,7 @@
         <v>45426</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29978,7 +29978,7 @@
         <v>44803</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30035,7 +30035,7 @@
         <v>46013.38071759259</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>46013.38175925926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>45251.56542824074</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>46013</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>45677.62396990741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>45075</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>45764</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>44974.48900462963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>46014.35547453703</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>46014.42520833333</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>46014.35118055555</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46056.46543981481</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45686.48527777778</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30791,7 +30791,7 @@
         <v>44846.89910879629</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         <v>44846.90166666666</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45411</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45574.4961574074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45468.603125</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44713.5634375</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>45308.42202546296</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45771.6094212963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44454.63469907407</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44454</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>46045.52421296296</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44888</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>45723.38783564815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>45154</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>45328.64667824074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44908</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>46064</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>44615</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>46069.45079861111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44909.39881944445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>44467.74497685185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>45161.86523148148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>45761.525</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32112,7 +32112,7 @@
         <v>46071.33418981481</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>46029.65</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>46029.69590277778</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45224.40849537037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>46029.68160879629</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>44481</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45154.575</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>46030.46462962963</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45706.45956018518</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45719.65719907408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>46031.45888888889</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44701</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45161.88435185186</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>45082.95840277777</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45649.65947916666</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44341</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>45096.35758101852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>45236</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45537.41849537037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45278.65578703704</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33267,7 +33267,7 @@
         <v>45204</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>44966.41256944444</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45160.48722222223</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45370</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45068</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>44539.6791087963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45680.65614583333</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45253.54540509259</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33738,7 +33738,7 @@
         <v>44845.41481481482</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33795,7 +33795,7 @@
         <v>44789</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>45239.5780787037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45370.63266203704</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45334.60681712963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34028,7 +34028,7 @@
         <v>45334.54140046296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44865.59502314815</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45107</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34209,7 +34209,7 @@
         <v>45204.3241087963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>45714.66260416667</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45204.31833333334</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44974.49688657407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>45560</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>45576</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>44490.36371527778</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>45076.99148148148</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>45251</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>45096.96689814814</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>45372.614375</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44623.32844907408</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>45156</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         <v>45071</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35022,7 +35022,7 @@
         <v>44298.31650462963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35084,7 +35084,7 @@
         <v>44908.90825231482</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         <v>45391.43503472222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35198,7 +35198,7 @@
         <v>44581.41361111111</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45111.67137731481</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35312,7 +35312,7 @@
         <v>44600</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>45761.52376157408</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         <v>45715.30773148148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
         <v>45594.32667824074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>45405.55135416667</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>45411</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         <v>45214.82375</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>45300</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35773,7 +35773,7 @@
         <v>44746</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35830,7 +35830,7 @@
         <v>44958.44994212963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>45300</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>45632.3565625</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45208</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>45218</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>45334.61295138889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36177,7 +36177,7 @@
         <v>44848</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>45537.41435185185</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36291,7 +36291,7 @@
         <v>45714.65763888889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45714.67034722222</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36415,7 +36415,7 @@
         <v>45715.31364583333</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>45715.38047453704</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>45715.38317129629</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36601,7 +36601,7 @@
         <v>44851</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>45707.62037037037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36715,7 +36715,7 @@
         <v>45628.47392361111</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45329</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45635</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36886,7 +36886,7 @@
         <v>45334.60099537037</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45334.61423611111</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37010,7 +37010,7 @@
         <v>44939</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45561.38298611111</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37129,7 +37129,7 @@
         <v>44719.81275462963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45762.50909722222</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>44281.61100694445</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37305,7 +37305,7 @@
         <v>45671.64480324074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37362,7 +37362,7 @@
         <v>44609</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37419,7 +37419,7 @@
         <v>44999.49866898148</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37476,7 +37476,7 @@
         <v>44999.51190972222</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37533,7 +37533,7 @@
         <v>45209</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>45770.39206018519</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37652,7 +37652,7 @@
         <v>45770.40364583334</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37714,7 +37714,7 @@
         <v>45770.42675925926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>45777.44771990741</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37838,7 +37838,7 @@
         <v>45777.47251157407</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
         <v>45779.34375</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37957,7 +37957,7 @@
         <v>45779.33960648148</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>45779.34159722222</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38071,7 +38071,7 @@
         <v>45779.51002314815</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38133,7 +38133,7 @@
         <v>45783.51277777777</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>45779.87166666667</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38247,7 +38247,7 @@
         <v>45637.58565972222</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38304,7 +38304,7 @@
         <v>45785.58833333333</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38361,7 +38361,7 @@
         <v>45785.58204861111</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38418,7 +38418,7 @@
         <v>45706.45083333334</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38475,7 +38475,7 @@
         <v>45166</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>45786.35311342592</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>45786</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45705.62732638889</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>45175</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>45530.57599537037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45790.57364583333</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>45579.6247337963</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>45791.85148148148</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>45791.84987268518</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>45741.4800462963</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45743.35166666667</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45624.33329861111</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45743.34086805556</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45741.41645833333</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39340,7 +39340,7 @@
         <v>45726.49972222222</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>45741.36644675926</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39459,7 +39459,7 @@
         <v>45741.41033564815</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>45728.56989583333</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>45741.38179398148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45330</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45741.37712962963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39764,7 +39764,7 @@
         <v>45741.38883101852</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>45727.51495370371</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>45798.65495370371</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>45777</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40002,7 +40002,7 @@
         <v>45737.3978587963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40059,7 +40059,7 @@
         <v>45524</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>45811.66655092593</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>45811.55803240741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>45091.65045138889</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>45771.5125</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>

--- a/Översikt EKSJÖ.xlsx
+++ b/Översikt EKSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45110.50200231482</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45285</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>44649.65215277778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45334</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44854.62974537037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45411.44167824074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         <v>44928</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>45898.37539351852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>45666.59840277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>45839.55155092593</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>45917</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>45954.41766203703</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45183</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45422.55405092592</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45666.58733796296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44799</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>45204</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>44320</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>44365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>44781.78630787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44454</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>44319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44358.3443287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>44375</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44753</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44516.49395833333</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>44281</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44620</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44309.53456018519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>44431.3840162037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44790.7184837963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         <v>44792</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         <v>44482.68408564815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44391</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44525.63767361111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44461</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44452</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44572</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44496</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44573.53703703704</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44746.36851851852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>44853.37575231482</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         <v>44650.405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>44294.90131944444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>44512</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>44873</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44845.41233796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         <v>44655</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>44623.34288194445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44431</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44782</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44739</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44271.31347222222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44274</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44274.38017361111</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44342.37496527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44334</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44298</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44477.5362962963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44487</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44598</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44264.5437962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>44440.44416666667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44552.46637731481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>44490</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>44477.53258101852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>44462.52061342593</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>44257</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>44257</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>44324</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>44341</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>44498</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>44428.69538194445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44861</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>44461</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>44340</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44746</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>44294</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44323</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         <v>44592</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44616.69247685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>44701</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44462</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44362</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44377.57223379629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44883</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44739</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>44467</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>44523</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>44851</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44384.6803125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>44476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>44748.71412037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>44294.7769675926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44847.58372685185</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44420.58342592593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44328.84101851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44522.55723379629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44610</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44266.50221064815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44544</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44600</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44861</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44480.55214120371</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44358.34016203704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44309.6172337963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44817</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44582</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44616</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44266.50493055556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44630</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44748.7228125</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44306</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44879.64934027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         <v>44616.69456018518</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
         <v>44831.42795138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
         <v>44991.51064814815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8208,7 +8208,7 @@
         <v>44298.31650462963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>45334</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>44834</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>45334.60099537037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8446,7 +8446,7 @@
         <v>45334.61295138889</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>45334.61423611111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8570,7 +8570,7 @@
         <v>45232</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>45719.65719907408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>45512.52320601852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>45076.99148148148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>45334.40017361111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>45355</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>45411</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8979,7 +8979,7 @@
         <v>44809.59835648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>45741.4753587963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>45741.48952546297</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>45741.4928125</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>45419</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45369</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45245.65277777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>45096.35758101852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45300</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44481</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45716</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45370</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44827.79935185185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44846</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>44846</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45184</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44378.77103009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45049</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
         <v>44903.70918981481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45533.60511574074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>44865.59502314815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45328</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44942.63164351852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45154.575</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>45113</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>45533.64871527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44974.36349537037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>45334.39123842592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45334.54140046296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44940.87436342592</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45530.57877314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44861</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>45485.44782407407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>45533.65033564815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44600</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44909.4028587963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45544.68020833333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45621.49960648148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44490.36371527778</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>45405.55135416667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>45537.41849537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>45558</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>45216.48376157408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>45524</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>45837.63809027777</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>45616.38618055556</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>45218</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44845.40542824074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44574</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>45091.65045138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44477</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>45771.5125</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45845.51493055555</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45840.5040625</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45513</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45811.66655092593</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>45811.55803240741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12288,7 +12288,7 @@
         <v>45825.48087962963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12345,7 +12345,7 @@
         <v>45818.58122685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44888</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45408.28024305555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45819.4267824074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45891.65788194445</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45894.36571759259</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45819.39496527778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45891.6499537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45891.65680555555</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45894.48199074074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45824.74221064815</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45372.614375</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45729</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45826</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45825.48480324074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45825.47730324074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45825.48501157408</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>45898.38814814815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>44974.48900462963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44623.32844907408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45898.38175925926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45827.61111111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>45384</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13681,7 +13681,7 @@
         <v>45770.38864583334</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45901.65664351852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>45195.79671296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>45827.60984953704</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45576.50716435185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45533.61387731481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45837.63300925926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44928</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14147,7 +14147,7 @@
         <v>45904.34918981481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14204,7 +14204,7 @@
         <v>45364.64887731482</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>45908</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45560</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45834.64112268519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44701</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45834.40570601852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45251.56542824074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44713.5634375</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45463.6528125</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45835.44341435185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45076.98871527778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45910.64387731482</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>45839.5980787037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45840.49496527778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45839.59015046297</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         <v>44803</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         <v>45715.34443287037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15203,7 +15203,7 @@
         <v>44909.39881944445</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15260,7 +15260,7 @@
         <v>45831.64405092593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>45839.59332175926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>45841.62108796297</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>45841</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>45841.61831018519</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>45628.47484953704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>45841.66398148148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45842.39381944444</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45841</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>45841</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44267.73493055555</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>45086.46122685185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>45911.65273148148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>45845.52295138889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>45911.44733796296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>45911.63292824074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45911.65128472223</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>45842.93458333334</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45842.93585648148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>45911.44883101852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>45911.39255787037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16467,7 +16467,7 @@
         <v>45911.65013888889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         <v>45911.62809027778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16581,7 +16581,7 @@
         <v>45003</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
         <v>45911.384375</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16695,7 +16695,7 @@
         <v>45632.3565625</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>45911.40510416667</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45912.45949074074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>44974.34145833334</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44719.81275462963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>45000.40204861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>45036</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>45916.72386574074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45695.63864583334</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17218,7 +17218,7 @@
         <v>45365.52149305555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>45785.60978009259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>45916.66194444444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>45096.36502314815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>45096</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
         <v>45916.73413194445</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>45916.35813657408</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45916.73899305556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>45916.74359953704</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>45915.5594212963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>45114.44476851852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45461.6134837963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45918.48857638889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45860.94825231482</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45860.96251157407</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>45917.74109953704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44340.82724537037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45631.43929398148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45924.59092592593</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>44341</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45866.95427083333</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>45924.59579861111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>45925.68997685185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45925.69309027777</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>45930.4549537037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>45929.54796296296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44783</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>45874.39650462963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44853</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45156</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45875.6087962963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>45875.61380787037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>45875</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>45877</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>45878.99365740741</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>45819.38864583334</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45715.31364583333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>45842.93702546296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45880.57400462963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45485.43127314815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>45161</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45161.51387731481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45882.49215277778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45237.59287037037</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>45882.4953125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45882.50864583333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45706.45956018518</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>44813</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45762.61453703704</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45224.40849537037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45715.38047453704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45715.38317129629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45719.50693287037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
         <v>45714.66260416667</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45714.66707175926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44945</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>45008.34104166667</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45911.6541087963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>45686.48527777778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45671.64480324074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45334.61032407408</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>44888</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>45197</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>45173</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>45940.51297453704</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21008,7 +21008,7 @@
         <v>45232</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>45238.62673611111</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>45072</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21179,7 +21179,7 @@
         <v>45418.32625</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21236,7 +21236,7 @@
         <v>45940.51159722222</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>45068</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21350,7 +21350,7 @@
         <v>45944.34914351852</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45741.36134259259</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45071</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>45111.67137731481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21583,7 +21583,7 @@
         <v>44390.42636574074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>45944.40170138889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>44908</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         <v>45741.48556712963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>45741.49657407407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>45946.49811342593</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44480.54768518519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>45944</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>45947.80585648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>45757.31737268518</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22168,7 +22168,7 @@
         <v>45222</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22225,7 +22225,7 @@
         <v>45944</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
         <v>45771.6094212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         <v>45947.62277777777</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45947.39905092592</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>45945</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>44412</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45954.59898148148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22629,7 +22629,7 @@
         <v>45954.60234953704</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
         <v>45945</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>45954.59519675926</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>45097</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>45761.525</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>45770.40704861111</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45092.38262731482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>44966.41256944444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23105,7 +23105,7 @@
         <v>44953.56549768519</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23162,7 +23162,7 @@
         <v>45391.43503472222</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23219,7 +23219,7 @@
         <v>44431.60414351852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>45964.47524305555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>45147</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>45964.48864583333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45964.48392361111</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45561.38298611111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45966.59479166667</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44917</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>45537.41435185185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>45972.33020833333</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>45334</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45972.35642361111</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45971.62094907407</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45968.8837037037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>44980.61952546296</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45560</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>44511</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45468.603125</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45975.41612268519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45315</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45975.41995370371</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>45664.54996527778</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>45643.57760416667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24555,7 +24555,7 @@
         <v>45975.30196759259</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45980.6590625</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44609</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24731,7 +24731,7 @@
         <v>45979</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>45251.49496527778</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24845,7 +24845,7 @@
         <v>45161.88435185186</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>45344</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>45981.58418981481</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>45402.23002314815</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>45635</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>45071</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>45985.46517361111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>45523.69509259259</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>45985.46603009259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25358,7 +25358,7 @@
         <v>45334.62074074074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44999.49866898148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44999.51190972222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>45329</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>45204.62497685185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45987</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45992.4608912037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>45992.44015046296</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45706.46256944445</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>45714.64796296296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>45714.65370370371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         <v>45714.65763888889</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>45714.67034722222</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>45992.45333333333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>45991.82202546296</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45628.47392361111</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>45345.50402777778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44581.41361111111</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>45996</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44615</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>45667.39393518519</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45667.39702546296</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>45999.67056712963</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>45173.60072916667</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>45726.5505324074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>45078.49630787037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45204.62349537037</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45999.69591435185</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45204</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>45764</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>45686.51806712963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>45677.62396990741</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>45176</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>45239.5780787037</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>45231.65976851852</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>46045.52527777778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>45162</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>46048.57797453704</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>46048.58375</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>46048.57659722222</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45232</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>45161.86523148148</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>45420</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45642.41534722222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>45223</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>45523.57994212963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>45523.60236111111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>46049.47642361111</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>45195.79848379629</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>45195.80072916667</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>45175</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>45680.56061342593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>46010.36774305555</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>46009.33664351852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28511,7 +28511,7 @@
         <v>46009.45725694444</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>46013.38071759259</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>46013.38175925926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>46014.35547453703</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28744,7 +28744,7 @@
         <v>46014.42520833333</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28801,7 +28801,7 @@
         <v>46013</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28858,7 +28858,7 @@
         <v>46056.46543981481</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28915,7 +28915,7 @@
         <v>44685.60590277778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28972,7 +28972,7 @@
         <v>45236</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45707.62037037037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44908.90825231482</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>46014.35118055555</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>45239.57196759259</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45761.52376157408</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>45770.39206018519</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45770.40364583334</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29500,7 +29500,7 @@
         <v>45770.42675925926</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>45314</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>45314</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>45463.63712962963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>44956.46387731482</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>45467</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45328.64667824074</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45328.78028935185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>45758.30741898148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45715.40460648148</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>44746.79146990741</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>46045.52421296296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45176</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45176</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>44888</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45264</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45533.49480324074</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>46064</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>44908</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44846.89910879629</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44846.90166666666</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45358.4497337963</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>46069.45079861111</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>46029.68160879629</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>46029.65</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>46030.46462962963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>46029.69590277778</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45243.60005787037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>45621.51123842593</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31183,7 +31183,7 @@
         <v>45594.32667824074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44630</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>46071.33418981481</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31359,7 +31359,7 @@
         <v>46034.49045138889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31416,7 +31416,7 @@
         <v>45209</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         <v>44851</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31530,7 +31530,7 @@
         <v>45160.48722222223</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31587,7 +31587,7 @@
         <v>46034.49508101852</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31644,7 +31644,7 @@
         <v>46034.59385416667</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31701,7 +31701,7 @@
         <v>46034.60202546296</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31758,7 +31758,7 @@
         <v>45161</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>46034.39793981481</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>46034.48131944444</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>46034.37393518518</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>46034.38525462963</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>45097.41813657407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>46034.40358796297</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>45532.53065972222</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44987</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>46031.45888888889</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>45391.63104166667</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44431</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44460.66883101852</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44515</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44454.63469907407</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45576</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44739.78042824074</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>46037.37125</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44539.6791087963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>46038.65603009259</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>46037.35515046296</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44939</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>46079.38351851852</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>45086.45991898148</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>46037.39334490741</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>45091.35229166667</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33302,7 +33302,7 @@
         <v>46037.35065972222</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33359,7 +33359,7 @@
         <v>46037.39934027778</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>45051.40623842592</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>44789</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33530,7 +33530,7 @@
         <v>45411</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33587,7 +33587,7 @@
         <v>45082.95840277777</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45086.66017361111</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33701,7 +33701,7 @@
         <v>44925</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>45078.49762731481</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>45154</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>44516</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>45278.65578703704</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44746</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44781.72799768519</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44781.7577662037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44958.44994212963</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>45635</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44267.62804398148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45337.49902777778</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>45680.54476851852</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>45201.39597222222</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         <v>44991</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34566,7 +34566,7 @@
         <v>44974.49688657407</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34628,7 +34628,7 @@
         <v>45281</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>44949.38921296296</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>45713.43780092592</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34799,7 +34799,7 @@
         <v>45728.57207175926</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>45057</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34918,7 +34918,7 @@
         <v>45253.54540509259</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34975,7 +34975,7 @@
         <v>45286.66042824074</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35032,7 +35032,7 @@
         <v>45659.49363425926</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45762.50909722222</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35146,7 +35146,7 @@
         <v>45680.65614583333</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35208,7 +35208,7 @@
         <v>45370.63266203704</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35265,7 +35265,7 @@
         <v>45075</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35322,7 +35322,7 @@
         <v>45096.96689814814</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>45152</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35436,7 +35436,7 @@
         <v>44467.74497685185</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35493,7 +35493,7 @@
         <v>44925</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35550,7 +35550,7 @@
         <v>44454</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44940.89184027778</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44941</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>45214.82375</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>45204.31833333334</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>45204.3241087963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>44309</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>45212</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>45771.53413194444</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>45574.4961574074</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>45649.65947916666</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>45141</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>45054</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44846</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>45758.30116898148</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36430,7 +36430,7 @@
         <v>45758.30449074074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44845.41481481482</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>45300</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44803.86137731482</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
         <v>45208</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44281.61100694445</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>45107</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36839,7 +36839,7 @@
         <v>44925</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36896,7 +36896,7 @@
         <v>44323</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36953,7 +36953,7 @@
         <v>45373.65174768519</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37010,7 +37010,7 @@
         <v>45601.36858796296</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37067,7 +37067,7 @@
         <v>45308.42202546296</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37124,7 +37124,7 @@
         <v>45334.60681712963</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         <v>45463.63390046296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         <v>45161</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37300,7 +37300,7 @@
         <v>45617.54293981481</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37357,7 +37357,7 @@
         <v>45251</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>44580</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45475.53646990741</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45715.30773148148</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37590,7 +37590,7 @@
         <v>45677</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37647,7 +37647,7 @@
         <v>45723.38783564815</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>45222</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37761,7 +37761,7 @@
         <v>45338.68826388889</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37818,7 +37818,7 @@
         <v>45575.49575231481</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37880,7 +37880,7 @@
         <v>45600.61741898148</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37937,7 +37937,7 @@
         <v>45770.38188657408</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37999,7 +37999,7 @@
         <v>45621.50383101852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45426</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45777.47251157407</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>45777.44771990741</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38242,7 +38242,7 @@
         <v>45779.87166666667</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>45779.33960648148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>45779.34159722222</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>45779.34375</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38470,7 +38470,7 @@
         <v>45779.51002314815</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38532,7 +38532,7 @@
         <v>45637.58565972222</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>45783.51277777777</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38646,7 +38646,7 @@
         <v>45786.35311342592</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>45166</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38760,7 +38760,7 @@
         <v>45175</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45706.45083333334</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38874,7 +38874,7 @@
         <v>45785.58833333333</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38931,7 +38931,7 @@
         <v>45786</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38988,7 +38988,7 @@
         <v>45785.58204861111</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>45790.57364583333</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>45705.62732638889</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>45530.57599537037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>45791.84987268518</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>45791.85148148148</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>45579.6247337963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39387,7 +39387,7 @@
         <v>45741.37712962963</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45741.38883101852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         <v>45728.56989583333</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         <v>45727.51495370371</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39630,7 +39630,7 @@
         <v>45743.34086805556</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39687,7 +39687,7 @@
         <v>45798.65495370371</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39744,7 +39744,7 @@
         <v>45741.4800462963</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>45741.41645833333</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39868,7 +39868,7 @@
         <v>45743.35166666667</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39925,7 +39925,7 @@
         <v>45777</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39987,7 +39987,7 @@
         <v>45741.36644675926</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>45741.41033564815</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>45741.38179398148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>45330</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>45726.49972222222</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>45624.33329861111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>45737.3978587963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
